--- a/results/comparaison/WM/diattenuation/median_raw_data.xlsx
+++ b/results/comparaison/WM/diattenuation/median_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -670,55 +682,55 @@
         <v>0.0224714533374699</v>
       </c>
       <c r="C2">
+        <v>0.0213967325827621</v>
+      </c>
+      <c r="D2">
         <v>0.02332635195674</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.0214780917142864</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.012169826105347</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0.0230334213489177</v>
+      </c>
+      <c r="H2">
         <v>0.018026233135696</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.024759258017521</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.0161007833185047</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.0239203602785377</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.0242081213014968</v>
-      </c>
-      <c r="K2">
-        <v>0.0187772274957037</v>
-      </c>
-      <c r="L2">
-        <v>0.0218537607321017</v>
       </c>
       <c r="M2">
         <v>0.0201930186293645</v>
       </c>
       <c r="N2">
+        <v>0.0187772274957037</v>
+      </c>
+      <c r="O2">
+        <v>0.0218537607321017</v>
+      </c>
+      <c r="P2">
         <v>0.0193162076917943</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.022321269824198</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.0141831185466214</v>
       </c>
-      <c r="Q2">
-        <v>0.0210846976792529</v>
-      </c>
-      <c r="R2">
-        <v>0.0196095971193082</v>
-      </c>
       <c r="S2">
-        <v>0.019658536664405</v>
+        <v>0.0190134113849288</v>
       </c>
       <c r="T2">
         <v>0.0197383147661985</v>
@@ -742,259 +754,304 @@
         <v>0.0136153419284057</v>
       </c>
       <c r="AA2">
-        <v>0.0301824200690145</v>
+        <v>0.0234655568430352</v>
       </c>
       <c r="AB2">
-        <v>0.0157779939132253</v>
+        <v>0.0259497528521934</v>
       </c>
       <c r="AC2">
-        <v>0.0201694533263796</v>
+        <v>0.0208115206209974</v>
       </c>
       <c r="AD2">
-        <v>0.0199723872188927</v>
+        <v>0.0209335075579528</v>
       </c>
       <c r="AE2">
+        <v>0.039173285832054</v>
+      </c>
+      <c r="AF2">
+        <v>0.0140647589561551</v>
+      </c>
+      <c r="AG2">
+        <v>0.0173136708796098</v>
+      </c>
+      <c r="AH2">
+        <v>0.0193016906787937</v>
+      </c>
+      <c r="AI2">
+        <v>0.0121216277933</v>
+      </c>
+      <c r="AJ2">
+        <v>0.0140108565692878</v>
+      </c>
+      <c r="AK2">
         <v>0.0210974732149065</v>
       </c>
-      <c r="AF2">
+      <c r="AL2">
+        <v>0.0224855217953405</v>
+      </c>
+      <c r="AM2">
         <v>0.0158673258441457</v>
       </c>
-      <c r="AG2">
-        <v>0.0243730524612833</v>
-      </c>
-      <c r="AH2">
+      <c r="AN2">
         <v>0.0172145218351615</v>
       </c>
-      <c r="AI2">
-        <v>0.0209958639178327</v>
-      </c>
-      <c r="AJ2">
+      <c r="AO2">
         <v>0.0172762234382411</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
+        <v>0.0342765761048978</v>
+      </c>
+      <c r="AQ2">
+        <v>0.0303521985196357</v>
+      </c>
+      <c r="AR2">
         <v>0.0163439113894178</v>
       </c>
-      <c r="AL2">
-        <v>0.0208115206209974</v>
-      </c>
-      <c r="AM2">
-        <v>0.0226622650840092</v>
-      </c>
-      <c r="AN2">
-        <v>0.0243933248277993</v>
-      </c>
-      <c r="AO2">
-        <v>0.0219156168776239</v>
-      </c>
-      <c r="AP2">
-        <v>0.0260954045495387</v>
-      </c>
-      <c r="AQ2">
-        <v>0.0328853198002238</v>
-      </c>
-      <c r="AR2">
-        <v>0.0350487113384821</v>
-      </c>
       <c r="AS2">
-        <v>0.0316573384743207</v>
+        <v>0.0372070916876075</v>
       </c>
       <c r="AT2">
-        <v>0.0209335075579528</v>
+        <v>0.0116037758344506</v>
       </c>
       <c r="AU2">
-        <v>0.0140647589561551</v>
+        <v>0.0191957917553966</v>
       </c>
       <c r="AV2">
-        <v>0.0173136708796098</v>
+        <v>0.0323580473014409</v>
       </c>
       <c r="AW2">
-        <v>0.0193016906787937</v>
+        <v>0.0220202366346535</v>
       </c>
       <c r="AX2">
-        <v>0.0121216277933</v>
+        <v>0.0194866296380385</v>
       </c>
       <c r="AY2">
-        <v>0.0170846170410898</v>
+        <v>0.0308730354479091</v>
       </c>
       <c r="AZ2">
-        <v>0.0306879361385258</v>
+        <v>0.0333523723986958</v>
       </c>
       <c r="BA2">
+        <v>0.0292763464856724</v>
+      </c>
+      <c r="BB2">
+        <v>0.0325358192564915</v>
+      </c>
+      <c r="BC2">
+        <v>0.0314355607524653</v>
+      </c>
+      <c r="BD2">
+        <v>0.0311072283520518</v>
+      </c>
+      <c r="BE2">
+        <v>0.0282151555042254</v>
+      </c>
+      <c r="BF2">
+        <v>0.0333513829529564</v>
+      </c>
+      <c r="BG2">
+        <v>0.0339917637506185</v>
+      </c>
+      <c r="BH2">
+        <v>0.0272236945188043</v>
+      </c>
+      <c r="BI2">
+        <v>0.031683213078388</v>
+      </c>
+      <c r="BJ2">
+        <v>0.0302275122187673</v>
+      </c>
+      <c r="BK2">
+        <v>0.0268199093375197</v>
+      </c>
+      <c r="BL2">
         <v>0.0305199597167443</v>
       </c>
-      <c r="BB2">
-        <v>0.0335385601605846</v>
-      </c>
-      <c r="BC2">
-        <v>0.0302462276690766</v>
-      </c>
-      <c r="BD2">
-        <v>0.0278831238374609</v>
-      </c>
-      <c r="BE2">
-        <v>0.0248441426209142</v>
-      </c>
-      <c r="BF2">
-        <v>0.0350373513141774</v>
-      </c>
-      <c r="BG2">
-        <v>0.0271221287139645</v>
-      </c>
-      <c r="BH2">
-        <v>0.0286097334805161</v>
-      </c>
-      <c r="BI2">
-        <v>0.0375011776471082</v>
-      </c>
-      <c r="BJ2">
-        <v>0.038309723399664</v>
-      </c>
-      <c r="BK2">
-        <v>0.0317499549183595</v>
-      </c>
-      <c r="BL2">
-        <v>0.0335206383188147</v>
-      </c>
       <c r="BM2">
-        <v>0.0288322633087044</v>
+        <v>0.0362358328879096</v>
       </c>
       <c r="BN2">
-        <v>0.0293268647355536</v>
+        <v>0.0286719182416034</v>
       </c>
       <c r="BO2">
-        <v>0.0324109896614794</v>
+        <v>0.0371068368751459</v>
       </c>
       <c r="BP2">
-        <v>0.0303768121634338</v>
+        <v>0.0222687634260097</v>
       </c>
       <c r="BQ2">
-        <v>0.0270232036126143</v>
+        <v>0.0249507536229511</v>
       </c>
       <c r="BR2">
-        <v>0.0326675027799542</v>
+        <v>0.0403291341712689</v>
       </c>
       <c r="BS2">
-        <v>0.0449872417957397</v>
+        <v>0.0236969215407211</v>
       </c>
       <c r="BT2">
-        <v>0.0254923569098006</v>
+        <v>0.0353850433702826</v>
       </c>
       <c r="BU2">
-        <v>0.025336146477658</v>
+        <v>0.0307494197762004</v>
       </c>
       <c r="BV2">
-        <v>0.0308146265554298</v>
+        <v>0.0299793918054881</v>
       </c>
       <c r="BW2">
-        <v>0.0281338121533208</v>
+        <v>0.027320158910906</v>
       </c>
       <c r="BX2">
-        <v>0.0303194729593819</v>
+        <v>0.0296217788196985</v>
       </c>
       <c r="BY2">
-        <v>0.0247163280640875</v>
+        <v>0.0335500526891812</v>
       </c>
       <c r="BZ2">
-        <v>0.0191937992200575</v>
+        <v>0.0174137671572505</v>
       </c>
       <c r="CA2">
-        <v>0.0432813118159527</v>
+        <v>0.02425031930858</v>
       </c>
       <c r="CB2">
-        <v>0.0213204541231511</v>
+        <v>0.0268827117629056</v>
       </c>
       <c r="CC2">
-        <v>0.0158805716821488</v>
+        <v>0.035525542826633</v>
       </c>
       <c r="CD2">
-        <v>0.0409912211279103</v>
+        <v>0.0298713181962973</v>
       </c>
       <c r="CE2">
+        <v>0.0206155718826347</v>
+      </c>
+      <c r="CF2">
+        <v>0.0292477624898135</v>
+      </c>
+      <c r="CG2">
+        <v>0.0246395846302081</v>
+      </c>
+      <c r="CH2">
+        <v>0.0336601688923129</v>
+      </c>
+      <c r="CI2">
+        <v>0.0263365393801326</v>
+      </c>
+      <c r="CJ2">
+        <v>0.0266166548941485</v>
+      </c>
+      <c r="CK2">
+        <v>0.0318757156216687</v>
+      </c>
+      <c r="CL2">
+        <v>0.0215451311846551</v>
+      </c>
+      <c r="CM2">
+        <v>0.0289405918726372</v>
+      </c>
+      <c r="CN2">
+        <v>0.0259707699294761</v>
+      </c>
+      <c r="CO2">
+        <v>0.020085054201694</v>
+      </c>
+      <c r="CP2">
+        <v>0.0267270001975905</v>
+      </c>
+      <c r="CQ2">
+        <v>0.0305352677563836</v>
+      </c>
+      <c r="CR2">
+        <v>0.0217408529152477</v>
+      </c>
+      <c r="CS2">
+        <v>0.0228327958729658</v>
+      </c>
+      <c r="CT2">
+        <v>0.017022067701749</v>
+      </c>
+      <c r="CU2">
+        <v>0.0221831647974047</v>
+      </c>
+      <c r="CV2">
+        <v>0.0173342386507005</v>
+      </c>
+      <c r="CW2">
         <v>0.0539254443599912</v>
       </c>
-      <c r="CF2">
-        <v>0.0346257500521581</v>
-      </c>
-      <c r="CG2">
-        <v>0.0352135062479331</v>
-      </c>
-      <c r="CH2">
-        <v>0.029675213166335</v>
-      </c>
-      <c r="CI2">
-        <v>0.0221880100763396</v>
-      </c>
-      <c r="CJ2">
-        <v>0.0177185247307972</v>
-      </c>
-      <c r="CK2">
-        <v>0.0292026203014474</v>
-      </c>
-      <c r="CL2">
-        <v>0.0326035749794252</v>
-      </c>
-      <c r="CM2">
-        <v>0.0210362373444567</v>
-      </c>
-      <c r="CN2">
-        <v>0.0321748139429971</v>
-      </c>
-      <c r="CO2">
-        <v>0.0186172432598192</v>
-      </c>
-      <c r="CP2">
-        <v>0.0190143099699238</v>
-      </c>
-      <c r="CQ2">
-        <v>0.0158365196938237</v>
-      </c>
-      <c r="CR2">
-        <v>0.0191984886842699</v>
-      </c>
-      <c r="CS2">
-        <v>0.0217408529152477</v>
-      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.021528248106686</v>
       </c>
+      <c r="C3">
+        <v>0.0235604012024343</v>
+      </c>
+      <c r="D3">
+        <v>0.0272981681157219</v>
+      </c>
       <c r="E3">
+        <v>0.0303873362453093</v>
+      </c>
+      <c r="F3">
         <v>0.0126114907184511</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.0225762839902219</v>
+      </c>
+      <c r="H3">
         <v>0.0247437994375253</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>0.0254186337842983</v>
+      </c>
+      <c r="J3">
         <v>0.015225332617222</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.0200955817839972</v>
       </c>
-      <c r="K3">
-        <v>0.025380180702656</v>
+      <c r="L3">
+        <v>0.0216476531033818</v>
       </c>
       <c r="M3">
         <v>0.0240134187277053</v>
       </c>
       <c r="N3">
+        <v>0.025380180702656</v>
+      </c>
+      <c r="O3">
+        <v>0.0182291379362577</v>
+      </c>
+      <c r="P3">
         <v>0.0173686448603108</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.0320317670867131</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.0202345389502588</v>
       </c>
       <c r="S3">
-        <v>0.0144307706432462</v>
+        <v>0.0203823138583494</v>
+      </c>
+      <c r="T3">
+        <v>0.0207794675176806</v>
+      </c>
+      <c r="U3">
+        <v>0.0238953361757919</v>
+      </c>
+      <c r="V3">
+        <v>0.0291884319509905</v>
       </c>
       <c r="W3">
         <v>0.0190404224811353</v>
       </c>
+      <c r="X3">
+        <v>0.0208264065031631</v>
+      </c>
       <c r="Y3">
         <v>0.0151489830652552</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>0.0124489609987866</v>
       </c>
       <c r="AA3">
-        <v>0.029798516223393</v>
+        <v>0.0232393319282757</v>
       </c>
       <c r="AB3">
-        <v>0.0187946469107153</v>
+        <v>0.0329085509131241</v>
+      </c>
+      <c r="AC3">
+        <v>0.0276517608907282</v>
+      </c>
+      <c r="AD3">
+        <v>0.0173391379476274</v>
+      </c>
+      <c r="AF3">
+        <v>0.0171225853675669</v>
+      </c>
+      <c r="AG3">
+        <v>0.0185961798980199</v>
+      </c>
+      <c r="AH3">
+        <v>0.0272639731104727</v>
+      </c>
+      <c r="AI3">
+        <v>0.0160724612109185</v>
+      </c>
+      <c r="AJ3">
+        <v>0.0142399072515501</v>
+      </c>
+      <c r="AL3">
+        <v>0.0202195704276227</v>
+      </c>
+      <c r="AM3">
+        <v>0.0221826426393061</v>
+      </c>
+      <c r="AN3">
+        <v>0.0178668148236139</v>
+      </c>
+      <c r="AO3">
+        <v>0.0177651667158285</v>
+      </c>
+      <c r="AP3">
+        <v>0.0385053326125482</v>
       </c>
       <c r="AQ3">
-        <v>0.0448253294801978</v>
+        <v>0.037975143056113</v>
       </c>
       <c r="AR3">
-        <v>0.0393833092282686</v>
+        <v>0.0186137591993967</v>
       </c>
       <c r="AS3">
-        <v>0.0393717397582874</v>
+        <v>0.0298469177175319</v>
       </c>
       <c r="AT3">
-        <v>0.0173391379476274</v>
+        <v>0.015608540187581</v>
       </c>
       <c r="AU3">
-        <v>0.0171225853675669</v>
+        <v>0.0298589663172869</v>
+      </c>
+      <c r="AV3">
+        <v>0.0448763963384222</v>
       </c>
       <c r="AX3">
-        <v>0.0160724612109185</v>
+        <v>0.0259358108945655</v>
+      </c>
+      <c r="AY3">
+        <v>0.0248438194723242</v>
+      </c>
+      <c r="AZ3">
+        <v>0.0322037183039387</v>
+      </c>
+      <c r="BA3">
+        <v>0.0209177198664349</v>
       </c>
       <c r="BB3">
-        <v>0.0309833001782742</v>
+        <v>0.0330541437429671</v>
       </c>
       <c r="BC3">
-        <v>0.0297990805622939</v>
+        <v>0.0269896585168494</v>
+      </c>
+      <c r="BD3">
+        <v>0.0266457368282557</v>
+      </c>
+      <c r="BE3">
+        <v>0.0219693526387129</v>
       </c>
       <c r="BF3">
-        <v>0.0296919106614899</v>
+        <v>0.0279727872898678</v>
+      </c>
+      <c r="BG3">
+        <v>0.0355005138796863</v>
+      </c>
+      <c r="BH3">
+        <v>0.0160216052750637</v>
       </c>
       <c r="BI3">
-        <v>0.0416022645042055</v>
+        <v>0.0251840408433824</v>
       </c>
       <c r="BJ3">
-        <v>0.0344697305159942</v>
+        <v>0.0229483629936336</v>
       </c>
       <c r="BK3">
-        <v>0.0331169092718578</v>
+        <v>0.0187895144848065</v>
+      </c>
+      <c r="BM3">
+        <v>0.030562274365887</v>
+      </c>
+      <c r="BN3">
+        <v>0.0265517711645136</v>
       </c>
       <c r="BO3">
-        <v>0.0252908723958565</v>
+        <v>0.0291324652759624</v>
       </c>
       <c r="BP3">
-        <v>0.0305629177623524</v>
+        <v>0.0215340930501759</v>
       </c>
       <c r="BQ3">
-        <v>0.0146913569379663</v>
+        <v>0.0264363017674835</v>
       </c>
       <c r="BR3">
-        <v>0.0315463841967951</v>
+        <v>0.039633377409595</v>
       </c>
       <c r="BS3">
-        <v>0.0445484079105106</v>
+        <v>0.0262063974303025</v>
+      </c>
+      <c r="BT3">
+        <v>0.0318202072345877</v>
       </c>
       <c r="BU3">
-        <v>0.0304040859754544</v>
+        <v>0.0328937626506629</v>
       </c>
       <c r="BV3">
-        <v>0.0304457806193991</v>
+        <v>0.0306402603557472</v>
+      </c>
+      <c r="BW3">
+        <v>0.0306099493077722</v>
+      </c>
+      <c r="BX3">
+        <v>0.0271980018658246</v>
+      </c>
+      <c r="BY3">
+        <v>0.0235494324402305</v>
+      </c>
+      <c r="BZ3">
+        <v>0.0164374132070876</v>
+      </c>
+      <c r="CA3">
+        <v>0.0260052776085394</v>
+      </c>
+      <c r="CB3">
+        <v>0.0259124762262912</v>
+      </c>
+      <c r="CC3">
+        <v>0.0265160447651291</v>
+      </c>
+      <c r="CD3">
+        <v>0.0241928612796312</v>
+      </c>
+      <c r="CE3">
+        <v>0.0202018134630205</v>
+      </c>
+      <c r="CF3">
+        <v>0.023562352855716</v>
       </c>
       <c r="CG3">
-        <v>0.0280897299911865</v>
+        <v>0.0204395958264158</v>
+      </c>
+      <c r="CH3">
+        <v>0.0252221654910807</v>
+      </c>
+      <c r="CI3">
+        <v>0.0226178722143689</v>
       </c>
       <c r="CK3">
-        <v>0.0253478170247465</v>
+        <v>0.0272519750774335</v>
+      </c>
+      <c r="CL3">
+        <v>0.0189060297912689</v>
+      </c>
+      <c r="CM3">
+        <v>0.0229149302334227</v>
       </c>
       <c r="CN3">
-        <v>0.0222848835684296</v>
+        <v>0.0169649534604076</v>
+      </c>
+      <c r="CO3">
+        <v>0.0209110780284451</v>
+      </c>
+      <c r="CP3">
+        <v>0.0225269551631899</v>
+      </c>
+      <c r="CQ3">
+        <v>0.0234960748209289</v>
+      </c>
+      <c r="CR3">
+        <v>0.018490332869099</v>
+      </c>
+      <c r="CS3">
+        <v>0.0179374769652641</v>
+      </c>
+      <c r="CT3">
+        <v>0.0208563086753196</v>
+      </c>
+      <c r="CU3">
+        <v>0.0212722034066767</v>
+      </c>
+      <c r="CV3">
+        <v>0.0191167781539193</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.0254122962045087</v>
       </c>
+      <c r="C4">
+        <v>0.0241003271055553</v>
+      </c>
+      <c r="D4">
+        <v>0.0273793161309418</v>
+      </c>
       <c r="E4">
+        <v>0.0329159956093513</v>
+      </c>
+      <c r="F4">
         <v>0.0129591500350399</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.0258310329757911</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>0.0257469838183682</v>
+      </c>
+      <c r="J4">
         <v>0.016826360668138</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.0224482427713709</v>
       </c>
-      <c r="K4">
-        <v>0.0245095413307606</v>
+      <c r="L4">
+        <v>0.0226282981173317</v>
       </c>
       <c r="M4">
         <v>0.026828879954581</v>
       </c>
       <c r="N4">
+        <v>0.0245095413307606</v>
+      </c>
+      <c r="O4">
+        <v>0.0210699382406148</v>
+      </c>
+      <c r="P4">
         <v>0.0179657647962033</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.0310927366929982</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.0193883655988673</v>
       </c>
       <c r="S4">
-        <v>0.0173045590427756</v>
+        <v>0.0233271763267492</v>
+      </c>
+      <c r="T4">
+        <v>0.0225461218941097</v>
+      </c>
+      <c r="U4">
+        <v>0.0267308992106977</v>
+      </c>
+      <c r="V4">
+        <v>0.0316473399884116</v>
       </c>
       <c r="W4">
         <v>0.0194737044098476</v>
       </c>
+      <c r="X4">
+        <v>0.0230770412228758</v>
+      </c>
       <c r="Y4">
         <v>0.0181918030309725</v>
       </c>
       <c r="Z4">
         <v>0.0141101758658759</v>
       </c>
+      <c r="AA4">
+        <v>0.0230164690385321</v>
+      </c>
       <c r="AB4">
-        <v>0.0179275047497711</v>
+        <v>0.0318012705607923</v>
+      </c>
+      <c r="AC4">
+        <v>0.0257159545296088</v>
+      </c>
+      <c r="AD4">
+        <v>0.0149412772217086</v>
+      </c>
+      <c r="AF4">
+        <v>0.014713092732403</v>
+      </c>
+      <c r="AG4">
+        <v>0.0181297028846583</v>
       </c>
       <c r="AH4">
+        <v>0.0261051043782638</v>
+      </c>
+      <c r="AI4">
+        <v>0.0163808192944439</v>
+      </c>
+      <c r="AJ4">
+        <v>0.0140451923287461</v>
+      </c>
+      <c r="AL4">
+        <v>0.0213059393151537</v>
+      </c>
+      <c r="AM4">
+        <v>0.0243269615564938</v>
+      </c>
+      <c r="AN4">
         <v>0.0193691786123113</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>0.0159687472143848</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>0.0370236567029035</v>
+      </c>
+      <c r="AQ4">
+        <v>0.0375272765664161</v>
+      </c>
+      <c r="AR4">
         <v>0.0164172886320229</v>
       </c>
-      <c r="AM4">
-        <v>0.0191696992897599</v>
-      </c>
-      <c r="AQ4">
-        <v>0.0425419378431595</v>
-      </c>
-      <c r="AR4">
-        <v>0.0375439292270723</v>
-      </c>
-      <c r="AS4">
-        <v>0.0368298513998062</v>
-      </c>
       <c r="AT4">
-        <v>0.0149412772217086</v>
+        <v>0.014143262939283</v>
       </c>
       <c r="AU4">
-        <v>0.014713092732403</v>
-      </c>
-      <c r="AX4">
-        <v>0.0163808192944439</v>
+        <v>0.0295593548905444</v>
+      </c>
+      <c r="AV4">
+        <v>0.0445056347223522</v>
+      </c>
+      <c r="AZ4">
+        <v>0.0335723951899001</v>
+      </c>
+      <c r="BA4">
+        <v>0.0280429854460515</v>
       </c>
       <c r="BB4">
-        <v>0.0315865668682522</v>
+        <v>0.0356382934405414</v>
       </c>
       <c r="BC4">
-        <v>0.0311248798554093</v>
+        <v>0.0262010890001173</v>
+      </c>
+      <c r="BD4">
+        <v>0.0281440009451521</v>
+      </c>
+      <c r="BE4">
+        <v>0.0249010799786997</v>
+      </c>
+      <c r="BF4">
+        <v>0.02994809844999</v>
+      </c>
+      <c r="BG4">
+        <v>0.0352522647037457</v>
+      </c>
+      <c r="BH4">
+        <v>0.0172204749044932</v>
       </c>
       <c r="BI4">
-        <v>0.0377645178746458</v>
+        <v>0.0252826231468711</v>
       </c>
       <c r="BJ4">
-        <v>0.0352210909496948</v>
+        <v>0.0254474385858481</v>
       </c>
       <c r="BK4">
-        <v>0.0357128501273228</v>
+        <v>0.0199655967956781</v>
+      </c>
+      <c r="BL4">
+        <v>0.0253209822431494</v>
+      </c>
+      <c r="BM4">
+        <v>0.0300967893472851</v>
+      </c>
+      <c r="BN4">
+        <v>0.0286967104363594</v>
+      </c>
+      <c r="BO4">
+        <v>0.0305719501119413</v>
       </c>
       <c r="BP4">
-        <v>0.0328704431960603</v>
-      </c>
-      <c r="BS4">
-        <v>0.047096890912919</v>
+        <v>0.0207654678296986</v>
+      </c>
+      <c r="BQ4">
+        <v>0.0286576759751287</v>
+      </c>
+      <c r="BR4">
+        <v>0.0434633629899593</v>
+      </c>
+      <c r="BT4">
+        <v>0.0328928927383015</v>
       </c>
       <c r="BU4">
-        <v>0.0333083935653786</v>
+        <v>0.0333304050681179</v>
       </c>
       <c r="BV4">
-        <v>0.0312394565817863</v>
+        <v>0.0306942472561888</v>
+      </c>
+      <c r="BW4">
+        <v>0.0328529203903042</v>
+      </c>
+      <c r="BX4">
+        <v>0.0289965288987363</v>
+      </c>
+      <c r="BY4">
+        <v>0.0252337890934442</v>
+      </c>
+      <c r="BZ4">
+        <v>0.020604346542035</v>
+      </c>
+      <c r="CA4">
+        <v>0.0274294884153543</v>
+      </c>
+      <c r="CB4">
+        <v>0.0269494249156738</v>
+      </c>
+      <c r="CC4">
+        <v>0.0285808225221616</v>
+      </c>
+      <c r="CD4">
+        <v>0.0252974125963248</v>
+      </c>
+      <c r="CE4">
+        <v>0.0225348209186022</v>
       </c>
       <c r="CF4">
-        <v>0.0234617352414767</v>
+        <v>0.0258214573846749</v>
+      </c>
+      <c r="CG4">
+        <v>0.0251336479832315</v>
       </c>
       <c r="CH4">
-        <v>0.02753711142151</v>
+        <v>0.0264411790469937</v>
+      </c>
+      <c r="CI4">
+        <v>0.0243782892306889</v>
       </c>
       <c r="CK4">
-        <v>0.0260929319194113</v>
+        <v>0.0309581440615265</v>
+      </c>
+      <c r="CL4">
+        <v>0.0188542285622884</v>
+      </c>
+      <c r="CM4">
+        <v>0.0236061056118766</v>
       </c>
       <c r="CN4">
-        <v>0.0240444445470466</v>
+        <v>0.0242481058027314</v>
+      </c>
+      <c r="CO4">
+        <v>0.024641652617946</v>
+      </c>
+      <c r="CP4">
+        <v>0.0262634296436046</v>
+      </c>
+      <c r="CQ4">
+        <v>0.0253175454633771</v>
+      </c>
+      <c r="CR4">
+        <v>0.0186696394707338</v>
+      </c>
+      <c r="CS4">
+        <v>0.0205240904780936</v>
+      </c>
+      <c r="CT4">
+        <v>0.0215279001847766</v>
+      </c>
+      <c r="CU4">
+        <v>0.0196351928732607</v>
+      </c>
+      <c r="CV4">
+        <v>0.0219823383808178</v>
+      </c>
+      <c r="CW4">
+        <v>0.026906850746593</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.0288993416107031</v>
       </c>
+      <c r="C5">
+        <v>0.0210254831312412</v>
+      </c>
       <c r="D5">
+        <v>0.0286124196265345</v>
+      </c>
+      <c r="E5">
         <v>0.0313913469768696</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.0138753665477293</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.0305091492460599</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0.021169075211258</v>
+      </c>
+      <c r="J5">
         <v>0.0222802121432516</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.0230391697905249</v>
       </c>
-      <c r="K5">
-        <v>0.0294076522253242</v>
+      <c r="L5">
+        <v>0.0246465261715917</v>
       </c>
       <c r="M5">
         <v>0.0336284783893148</v>
       </c>
       <c r="N5">
+        <v>0.0294076522253242</v>
+      </c>
+      <c r="O5">
+        <v>0.029241138461121</v>
+      </c>
+      <c r="P5">
         <v>0.0230149272876892</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.0346332375449689</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.0230087385938283</v>
       </c>
       <c r="S5">
-        <v>0.0220332997597464</v>
+        <v>0.0265892958446585</v>
+      </c>
+      <c r="T5">
+        <v>0.024613457735765</v>
+      </c>
+      <c r="U5">
+        <v>0.0277443793408598</v>
+      </c>
+      <c r="V5">
+        <v>0.0338464682198555</v>
       </c>
       <c r="W5">
         <v>0.0253207200072933</v>
       </c>
+      <c r="X5">
+        <v>0.0250358485134713</v>
+      </c>
       <c r="Y5">
         <v>0.0220544298678512</v>
       </c>
       <c r="Z5">
         <v>0.0180196871959544</v>
       </c>
+      <c r="AA5">
+        <v>0.0225876414910629</v>
+      </c>
       <c r="AB5">
-        <v>0.0152308488636444</v>
+        <v>0.0306035619586598</v>
+      </c>
+      <c r="AC5">
+        <v>0.0254918511189964</v>
+      </c>
+      <c r="AD5">
+        <v>0.0158938881892203</v>
+      </c>
+      <c r="AF5">
+        <v>0.0155372287404451</v>
+      </c>
+      <c r="AG5">
+        <v>0.0203020392487597</v>
+      </c>
+      <c r="AH5">
+        <v>0.0232764750804778</v>
+      </c>
+      <c r="AI5">
+        <v>0.0178360022752683</v>
+      </c>
+      <c r="AJ5">
+        <v>0.0157842013083268</v>
+      </c>
+      <c r="AL5">
+        <v>0.0195984097719268</v>
+      </c>
+      <c r="AM5">
+        <v>0.022001023527799</v>
+      </c>
+      <c r="AN5">
+        <v>0.0214920108480124</v>
+      </c>
+      <c r="AO5">
+        <v>0.0161384079843549</v>
+      </c>
+      <c r="AP5">
+        <v>0.0352438228216107</v>
       </c>
       <c r="AQ5">
-        <v>0.0417581424945712</v>
+        <v>0.0408304910955092</v>
       </c>
       <c r="AR5">
-        <v>0.0388488956675165</v>
+        <v>0.0157381274247136</v>
       </c>
       <c r="AS5">
-        <v>0.0415712573033026</v>
+        <v>0.0308593408448613</v>
       </c>
       <c r="AT5">
-        <v>0.0158938881892203</v>
+        <v>0.0137596058826544</v>
       </c>
       <c r="AU5">
-        <v>0.0155372287404451</v>
-      </c>
-      <c r="AX5">
-        <v>0.0178360022752683</v>
+        <v>0.0270442553835762</v>
+      </c>
+      <c r="AV5">
+        <v>0.043326483542023</v>
+      </c>
+      <c r="AY5">
+        <v>0.0273585777218614</v>
+      </c>
+      <c r="AZ5">
+        <v>0.0338149090126732</v>
+      </c>
+      <c r="BA5">
+        <v>0.0210234820081795</v>
       </c>
       <c r="BB5">
-        <v>0.0293638364151291</v>
+        <v>0.0391933699168995</v>
       </c>
       <c r="BC5">
-        <v>0.0273458018825346</v>
+        <v>0.0205864762616866</v>
+      </c>
+      <c r="BD5">
+        <v>0.0264848408115264</v>
       </c>
       <c r="BE5">
-        <v>0.0204302876063598</v>
+        <v>0.0229324014323918</v>
+      </c>
+      <c r="BF5">
+        <v>0.0307806806580744</v>
+      </c>
+      <c r="BG5">
+        <v>0.0357755803520314</v>
+      </c>
+      <c r="BH5">
+        <v>0.0177046954192126</v>
       </c>
       <c r="BI5">
-        <v>0.0388732088799335</v>
+        <v>0.0249099820254708</v>
+      </c>
+      <c r="BJ5">
+        <v>0.0250376239932021</v>
       </c>
       <c r="BK5">
-        <v>0.0385357688560678</v>
+        <v>0.0196973252933268</v>
+      </c>
+      <c r="BM5">
+        <v>0.03154189338649</v>
+      </c>
+      <c r="BN5">
+        <v>0.0273882723135845</v>
+      </c>
+      <c r="BO5">
+        <v>0.0293861383214575</v>
       </c>
       <c r="BP5">
-        <v>0.0271627678757761</v>
-      </c>
-      <c r="BS5">
-        <v>0.0434892739444113</v>
+        <v>0.0183165926173088</v>
+      </c>
+      <c r="BQ5">
+        <v>0.0258485352182597</v>
+      </c>
+      <c r="BR5">
+        <v>0.0395953649184543</v>
+      </c>
+      <c r="BT5">
+        <v>0.0327203287194487</v>
       </c>
       <c r="BU5">
-        <v>0.0280882807692614</v>
+        <v>0.027947305009253</v>
       </c>
       <c r="BV5">
-        <v>0.0309279366705678</v>
+        <v>0.0301084234754164</v>
+      </c>
+      <c r="BW5">
+        <v>0.0263845741673444</v>
+      </c>
+      <c r="BX5">
+        <v>0.0278454669208099</v>
+      </c>
+      <c r="BY5">
+        <v>0.0226932842905522</v>
       </c>
       <c r="BZ5">
-        <v>0.0201962635359087</v>
+        <v>0.0181154021045335</v>
+      </c>
+      <c r="CA5">
+        <v>0.0255453476837733</v>
+      </c>
+      <c r="CB5">
+        <v>0.0257773915000586</v>
       </c>
       <c r="CC5">
-        <v>0.0162094836922784</v>
+        <v>0.0250921367388431</v>
+      </c>
+      <c r="CD5">
+        <v>0.0244272576731321</v>
+      </c>
+      <c r="CE5">
+        <v>0.0239364315898864</v>
+      </c>
+      <c r="CF5">
+        <v>0.0208362883466594</v>
+      </c>
+      <c r="CG5">
+        <v>0.023234087961102</v>
       </c>
       <c r="CH5">
-        <v>0.0270770050392441</v>
+        <v>0.0269417212682718</v>
+      </c>
+      <c r="CI5">
+        <v>0.0222725744079234</v>
       </c>
       <c r="CK5">
-        <v>0.024600106507952</v>
+        <v>0.026590985190286</v>
+      </c>
+      <c r="CL5">
+        <v>0.0193782983825739</v>
+      </c>
+      <c r="CM5">
+        <v>0.0236825595899762</v>
+      </c>
+      <c r="CN5">
+        <v>0.0201615150934346</v>
+      </c>
+      <c r="CO5">
+        <v>0.023801390818471</v>
       </c>
       <c r="CP5">
-        <v>0.0216741775678046</v>
+        <v>0.0228035908638616</v>
+      </c>
+      <c r="CQ5">
+        <v>0.0218178107469167</v>
+      </c>
+      <c r="CR5">
+        <v>0.021568440181499</v>
       </c>
       <c r="CS5">
-        <v>0.021568440181499</v>
+        <v>0.0190794450996392</v>
+      </c>
+      <c r="CT5">
+        <v>0.0232813700237342</v>
+      </c>
+      <c r="CU5">
+        <v>0.0233647148492128</v>
+      </c>
+      <c r="CV5">
+        <v>0.0213570755795322</v>
+      </c>
+      <c r="CW5">
+        <v>0.026201178562996</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.024893605567447</v>
       </c>
+      <c r="C6">
+        <v>0.0193945679122044</v>
+      </c>
+      <c r="D6">
+        <v>0.0264910922272228</v>
+      </c>
       <c r="E6">
+        <v>0.0335775342174756</v>
+      </c>
+      <c r="F6">
         <v>0.0125347117221272</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.0264993094378423</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0.0248932391190182</v>
+      </c>
+      <c r="J6">
         <v>0.0205219547629206</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.0262545115569683</v>
       </c>
-      <c r="K6">
-        <v>0.0279895025526275</v>
+      <c r="L6">
+        <v>0.0235747500687606</v>
       </c>
       <c r="M6">
         <v>0.0319428630902685</v>
       </c>
       <c r="N6">
+        <v>0.0279895025526275</v>
+      </c>
+      <c r="O6">
+        <v>0.0277604636887133</v>
+      </c>
+      <c r="P6">
         <v>0.0234702829739612</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>0.0318350543988288</v>
+      </c>
+      <c r="R6">
         <v>0.0192261032437358</v>
       </c>
       <c r="S6">
-        <v>0.0198053358179747</v>
+        <v>0.0251792190799848</v>
+      </c>
+      <c r="T6">
+        <v>0.0245673060704619</v>
+      </c>
+      <c r="U6">
+        <v>0.0282550906657115</v>
+      </c>
+      <c r="V6">
+        <v>0.0370482401662486</v>
       </c>
       <c r="W6">
         <v>0.0252154439892056</v>
       </c>
+      <c r="X6">
+        <v>0.0269597381505545</v>
+      </c>
       <c r="Y6">
         <v>0.0180971872122297</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>0.0166038402973046</v>
       </c>
       <c r="AA6">
-        <v>0.0244813097761284</v>
+        <v>0.0212729272559353</v>
       </c>
       <c r="AB6">
-        <v>0.0121666600182758</v>
+        <v>0.0299831371012346</v>
+      </c>
+      <c r="AC6">
+        <v>0.024144964284274</v>
+      </c>
+      <c r="AD6">
+        <v>0.0177453194705844</v>
+      </c>
+      <c r="AF6">
+        <v>0.0189954197900883</v>
+      </c>
+      <c r="AG6">
+        <v>0.0190599961467521</v>
+      </c>
+      <c r="AH6">
+        <v>0.0229131912791087</v>
+      </c>
+      <c r="AI6">
+        <v>0.0258429525725816</v>
+      </c>
+      <c r="AJ6">
+        <v>0.0200183742798492</v>
+      </c>
+      <c r="AK6">
+        <v>0.0240683167294447</v>
+      </c>
+      <c r="AL6">
+        <v>0.0209148042973284</v>
+      </c>
+      <c r="AM6">
+        <v>0.0232274124744873</v>
+      </c>
+      <c r="AN6">
+        <v>0.0184290861547605</v>
+      </c>
+      <c r="AO6">
+        <v>0.0191498812740157</v>
+      </c>
+      <c r="AP6">
+        <v>0.0314119277330917</v>
       </c>
       <c r="AQ6">
-        <v>0.0427655877710546</v>
+        <v>0.0388784116133601</v>
       </c>
       <c r="AR6">
-        <v>0.0339206184023339</v>
+        <v>0.0195922229983534</v>
       </c>
       <c r="AS6">
-        <v>0.0383334290473189</v>
+        <v>0.0300071645388191</v>
       </c>
       <c r="AT6">
-        <v>0.0177453194705844</v>
+        <v>0.0123793878948024</v>
       </c>
       <c r="AU6">
-        <v>0.0189954197900883</v>
+        <v>0.0277126949373622</v>
+      </c>
+      <c r="AV6">
+        <v>0.0403503664122738</v>
+      </c>
+      <c r="AW6">
+        <v>0.0237773180697134</v>
       </c>
       <c r="AX6">
-        <v>0.0258429525725816</v>
+        <v>0.0245392767288328</v>
+      </c>
+      <c r="AY6">
+        <v>0.0274654485329111</v>
       </c>
       <c r="AZ6">
-        <v>0.0260280262016881</v>
+        <v>0.0350119642990178</v>
+      </c>
+      <c r="BA6">
+        <v>0.0300746497794825</v>
       </c>
       <c r="BB6">
-        <v>0.0372409691595213</v>
+        <v>0.0367490539186191</v>
+      </c>
+      <c r="BC6">
+        <v>0.0252722054169282</v>
+      </c>
+      <c r="BD6">
+        <v>0.0237731896735839</v>
       </c>
       <c r="BE6">
-        <v>0.0211398364412028</v>
+        <v>0.0210881961638381</v>
+      </c>
+      <c r="BF6">
+        <v>0.0348655946405554</v>
+      </c>
+      <c r="BG6">
+        <v>0.0348452251349185</v>
+      </c>
+      <c r="BH6">
+        <v>0.0183603720974407</v>
       </c>
       <c r="BI6">
-        <v>0.038720755877607</v>
+        <v>0.0264470084093996</v>
       </c>
       <c r="BJ6">
-        <v>0.0320047341173214</v>
+        <v>0.0280016037378471</v>
       </c>
       <c r="BK6">
-        <v>0.0361599088072095</v>
+        <v>0.0201576062464528</v>
+      </c>
+      <c r="BL6">
+        <v>0.0238806430483959</v>
+      </c>
+      <c r="BM6">
+        <v>0.0291455988297698</v>
+      </c>
+      <c r="BN6">
+        <v>0.0277697984051378</v>
+      </c>
+      <c r="BO6">
+        <v>0.035483467570097</v>
       </c>
       <c r="BP6">
-        <v>0.0319554671720676</v>
+        <v>0.0219186789175628</v>
+      </c>
+      <c r="BQ6">
+        <v>0.0301755986600751</v>
       </c>
       <c r="BR6">
-        <v>0.0295321187595831</v>
+        <v>0.0394075142878387</v>
       </c>
       <c r="BS6">
-        <v>0.0436621610089524</v>
+        <v>0.0271627209032707</v>
+      </c>
+      <c r="BT6">
+        <v>0.0369661496239185</v>
       </c>
       <c r="BU6">
-        <v>0.0334726650623884</v>
+        <v>0.0342583381703818</v>
       </c>
       <c r="BV6">
-        <v>0.0357201884327419</v>
+        <v>0.0294404181715356</v>
+      </c>
+      <c r="BW6">
+        <v>0.0306939200485797</v>
+      </c>
+      <c r="BX6">
+        <v>0.028671345912448</v>
+      </c>
+      <c r="BY6">
+        <v>0.0266713163538757</v>
       </c>
       <c r="BZ6">
-        <v>0.0214463216877163</v>
+        <v>0.0176474036060871</v>
       </c>
       <c r="CA6">
-        <v>0.0235230360855615</v>
+        <v>0.0269049471840275</v>
+      </c>
+      <c r="CB6">
+        <v>0.0245818677170454</v>
       </c>
       <c r="CC6">
-        <v>0.020164976843548</v>
+        <v>0.0309741970376562</v>
+      </c>
+      <c r="CD6">
+        <v>0.026351665225641</v>
+      </c>
+      <c r="CE6">
+        <v>0.0232036389530485</v>
       </c>
       <c r="CF6">
-        <v>0.0273237688951285</v>
+        <v>0.0238146778974713</v>
       </c>
       <c r="CG6">
-        <v>0.0303695286893008</v>
+        <v>0.0187524857786272</v>
       </c>
       <c r="CH6">
-        <v>0.0270468461216796</v>
+        <v>0.0298458211647454</v>
+      </c>
+      <c r="CI6">
+        <v>0.023085339443706</v>
       </c>
       <c r="CK6">
-        <v>0.0242601095565987</v>
+        <v>0.0279511615334146</v>
+      </c>
+      <c r="CL6">
+        <v>0.0220937241064556</v>
+      </c>
+      <c r="CM6">
+        <v>0.0230780549395291</v>
       </c>
       <c r="CN6">
-        <v>0.0245897433734016</v>
+        <v>0.024487132100283</v>
+      </c>
+      <c r="CO6">
+        <v>0.0236968841377075</v>
       </c>
       <c r="CP6">
-        <v>0.0205498890279133</v>
+        <v>0.0206382265713421</v>
+      </c>
+      <c r="CQ6">
+        <v>0.023119952859137</v>
       </c>
       <c r="CR6">
-        <v>0.0245200898723689</v>
+        <v>0.0192837329021148</v>
       </c>
       <c r="CS6">
-        <v>0.0192837329021148</v>
+        <v>0.0210716334321319</v>
+      </c>
+      <c r="CT6">
+        <v>0.0231866405645358</v>
+      </c>
+      <c r="CU6">
+        <v>0.0250884282384342</v>
+      </c>
+      <c r="CV6">
+        <v>0.0195312232421809</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0.030215112517176</v>
       </c>
+      <c r="C7">
+        <v>0.0238494064690434</v>
+      </c>
+      <c r="D7">
+        <v>0.0314232437820191</v>
+      </c>
       <c r="E7">
+        <v>0.0358812608061704</v>
+      </c>
+      <c r="F7">
         <v>0.0144042269352278</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.0335280233068858</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>0.0259233048021131</v>
+      </c>
+      <c r="J7">
         <v>0.0250561968513018</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.0295270703924275</v>
       </c>
-      <c r="K7">
-        <v>0.034503915749426</v>
+      <c r="L7">
+        <v>0.027543958980334</v>
       </c>
       <c r="M7">
         <v>0.0346795031011749</v>
       </c>
       <c r="N7">
+        <v>0.034503915749426</v>
+      </c>
+      <c r="O7">
+        <v>0.029893372198645</v>
+      </c>
+      <c r="P7">
         <v>0.0255540019067903</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.0374718336601817</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.0244449601129045</v>
       </c>
       <c r="S7">
-        <v>0.0222087021264334</v>
+        <v>0.023345694762385</v>
+      </c>
+      <c r="T7">
+        <v>0.0237069577297638</v>
+      </c>
+      <c r="U7">
+        <v>0.0282951321937546</v>
+      </c>
+      <c r="V7">
+        <v>0.0320316834077573</v>
       </c>
       <c r="W7">
         <v>0.0269172964107831</v>
       </c>
+      <c r="X7">
+        <v>0.0265363317931417</v>
+      </c>
       <c r="Y7">
         <v>0.0231373445038017</v>
       </c>
       <c r="Z7">
         <v>0.0179509623339172</v>
       </c>
+      <c r="AA7">
+        <v>0.0216334448609482</v>
+      </c>
       <c r="AB7">
-        <v>0.0139637303595651</v>
+        <v>0.0306325385638134</v>
+      </c>
+      <c r="AC7">
+        <v>0.0261601466016347</v>
+      </c>
+      <c r="AD7">
+        <v>0.0177657490019849</v>
+      </c>
+      <c r="AE7">
+        <v>0.0168759496130687</v>
+      </c>
+      <c r="AF7">
+        <v>0.0184519203185092</v>
+      </c>
+      <c r="AG7">
+        <v>0.0185017796904315</v>
+      </c>
+      <c r="AH7">
+        <v>0.0258685103258211</v>
+      </c>
+      <c r="AI7">
+        <v>0.0169548181564942</v>
+      </c>
+      <c r="AJ7">
+        <v>0.0146559773093698</v>
       </c>
       <c r="AK7">
+        <v>0.0235523456446173</v>
+      </c>
+      <c r="AL7">
+        <v>0.0194740570518316</v>
+      </c>
+      <c r="AM7">
+        <v>0.0243764909390372</v>
+      </c>
+      <c r="AN7">
+        <v>0.0222416824520659</v>
+      </c>
+      <c r="AO7">
+        <v>0.0190636113115336</v>
+      </c>
+      <c r="AP7">
+        <v>0.0318525015030282</v>
+      </c>
+      <c r="AQ7">
+        <v>0.0380769364586785</v>
+      </c>
+      <c r="AR7">
         <v>0.0151602554621394</v>
       </c>
-      <c r="AQ7">
-        <v>0.0400711459550146</v>
-      </c>
-      <c r="AR7">
-        <v>0.0383901180402693</v>
-      </c>
       <c r="AS7">
-        <v>0.0366651228792824</v>
+        <v>0.0335275030146085</v>
       </c>
       <c r="AT7">
-        <v>0.0177657490019849</v>
+        <v>0.0127402773767924</v>
       </c>
       <c r="AU7">
-        <v>0.0184519203185092</v>
+        <v>0.0286834589650068</v>
+      </c>
+      <c r="AV7">
+        <v>0.0393947119119693</v>
+      </c>
+      <c r="AW7">
+        <v>0.0245236375736473</v>
       </c>
       <c r="AX7">
-        <v>0.0169548181564942</v>
+        <v>0.0270081653705334</v>
+      </c>
+      <c r="AY7">
+        <v>0.0300275650484628</v>
+      </c>
+      <c r="AZ7">
+        <v>0.0351388104187795</v>
+      </c>
+      <c r="BA7">
+        <v>0.0236795382135951</v>
       </c>
       <c r="BB7">
-        <v>0.0317484277247058</v>
+        <v>0.0439094481283926</v>
       </c>
       <c r="BC7">
-        <v>0.0252055227203273</v>
+        <v>0.0279123510627701</v>
+      </c>
+      <c r="BD7">
+        <v>0.0303279603253081</v>
+      </c>
+      <c r="BE7">
+        <v>0.0256331146593121</v>
+      </c>
+      <c r="BF7">
+        <v>0.0333758252482384</v>
+      </c>
+      <c r="BG7">
+        <v>0.0403303232160466</v>
+      </c>
+      <c r="BH7">
+        <v>0.0231728033899153</v>
       </c>
       <c r="BI7">
-        <v>0.0422314160153809</v>
+        <v>0.03102568668772</v>
       </c>
       <c r="BJ7">
-        <v>0.0328216195547128</v>
+        <v>0.0281374207976474</v>
       </c>
       <c r="BK7">
-        <v>0.0425343126571548</v>
+        <v>0.0229541912965222</v>
+      </c>
+      <c r="BL7">
+        <v>0.0232305224426987</v>
+      </c>
+      <c r="BM7">
+        <v>0.0281056901488585</v>
+      </c>
+      <c r="BN7">
+        <v>0.0297043479161854</v>
+      </c>
+      <c r="BO7">
+        <v>0.0317503223952361</v>
       </c>
       <c r="BP7">
-        <v>0.028089109451771</v>
+        <v>0.0272766923063971</v>
+      </c>
+      <c r="BQ7">
+        <v>0.0247708938758464</v>
       </c>
       <c r="BR7">
-        <v>0.0290602504492125</v>
-      </c>
-      <c r="BS7">
-        <v>0.0430765670208517</v>
+        <v>0.0371002577811934</v>
+      </c>
+      <c r="BT7">
+        <v>0.0299747770698963</v>
       </c>
       <c r="BU7">
-        <v>0.0291567188938731</v>
+        <v>0.0253835779616252</v>
       </c>
       <c r="BV7">
-        <v>0.0300178603055768</v>
+        <v>0.0352404678946798</v>
+      </c>
+      <c r="BW7">
+        <v>0.0263189889233789</v>
+      </c>
+      <c r="BX7">
+        <v>0.0308167366725469</v>
+      </c>
+      <c r="BY7">
+        <v>0.0300437634484947</v>
+      </c>
+      <c r="BZ7">
+        <v>0.018408634634095</v>
+      </c>
+      <c r="CA7">
+        <v>0.0257258780665744</v>
+      </c>
+      <c r="CB7">
+        <v>0.029065170685924</v>
+      </c>
+      <c r="CC7">
+        <v>0.0283342273380098</v>
+      </c>
+      <c r="CD7">
+        <v>0.0293091439972946</v>
+      </c>
+      <c r="CE7">
+        <v>0.0219998344092694</v>
       </c>
       <c r="CF7">
-        <v>0.0309833940689907</v>
+        <v>0.0287975259194454</v>
       </c>
       <c r="CG7">
-        <v>0.0328952673499091</v>
+        <v>0.0236783975109947</v>
       </c>
       <c r="CH7">
-        <v>0.0305036753083864</v>
+        <v>0.0308845990876132</v>
+      </c>
+      <c r="CI7">
+        <v>0.0264705146651531</v>
+      </c>
+      <c r="CK7">
+        <v>0.0308819167380569</v>
+      </c>
+      <c r="CL7">
+        <v>0.0257143980380982</v>
+      </c>
+      <c r="CM7">
+        <v>0.0262704865692248</v>
+      </c>
+      <c r="CN7">
+        <v>0.019760039591392</v>
+      </c>
+      <c r="CO7">
+        <v>0.0254940921745648</v>
+      </c>
+      <c r="CP7">
+        <v>0.028678761980295</v>
+      </c>
+      <c r="CQ7">
+        <v>0.0292551274752662</v>
+      </c>
+      <c r="CR7">
+        <v>0.0256884759185441</v>
+      </c>
+      <c r="CS7">
+        <v>0.0226082489694614</v>
+      </c>
+      <c r="CT7">
+        <v>0.022938230827888</v>
+      </c>
+      <c r="CU7">
+        <v>0.0262546969394875</v>
+      </c>
+      <c r="CV7">
+        <v>0.0265025990788483</v>
       </c>
     </row>
   </sheetData>
